--- a/tables/Compare_DE_rand_1_best_1_dim10.xlsx
+++ b/tables/Compare_DE_rand_1_best_1_dim10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>F#</t>
   </si>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="K13" sqref="K13:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,31 +519,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L1" s="11"/>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -868,6 +847,27 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -875,33 +875,12 @@
         <v>17</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
       <c r="K12" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="11"/>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" t="s">
-        <v>26</v>
-      </c>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
